--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3780849720391437</v>
+        <v>2.3780849759774303</v>
       </c>
       <c r="C2">
-        <v>3.0963195378118238</v>
+        <v>3.0963195420125227</v>
       </c>
       <c r="D2">
-        <v>21.673110542971529</v>
+        <v>21.673110925943888</v>
       </c>
       <c r="E2">
-        <v>16.165518603657922</v>
+        <v>16.165518518103237</v>
       </c>
       <c r="F2">
-        <v>9.3266426388701635</v>
+        <v>9.3266425621691464</v>
       </c>
       <c r="G2">
-        <v>8.0200352103915264</v>
+        <v>8.0200352588467254</v>
       </c>
       <c r="H2">
-        <v>15.471072458215735</v>
+        <v>15.471072332386578</v>
       </c>
       <c r="I2">
-        <v>2.8801063476374349</v>
+        <v>2.8801062760594478</v>
       </c>
       <c r="J2">
-        <v>16.293856721861324</v>
+        <v>16.29385651619592</v>
       </c>
       <c r="K2">
-        <v>14.543890162171383</v>
+        <v>14.543890159730674</v>
       </c>
       <c r="L2">
-        <v>2.9177912744138728</v>
+        <v>2.9177912022098367</v>
       </c>
       <c r="M2">
-        <v>3.3044427166708621</v>
+        <v>3.304442701213099</v>
       </c>
       <c r="N2">
-        <v>0.17498011432862567</v>
+        <v>0.17498011386336998</v>
       </c>
       <c r="O2">
-        <v>5.8050793183615275</v>
+        <v>5.8050792778891367</v>
       </c>
       <c r="P2">
-        <v>4.0688889722708108</v>
+        <v>4.0688888737297999</v>
       </c>
       <c r="Q2">
-        <v>3.956363254270387</v>
+        <v>3.9563632620654339</v>
       </c>
       <c r="R2">
-        <v>5.7366023813246798</v>
+        <v>5.7366023908921173</v>
       </c>
       <c r="S2">
-        <v>6.729548691855288</v>
+        <v>6.7295485840233251</v>
       </c>
       <c r="T2">
-        <v>1.1874508916592974</v>
+        <v>1.1874508820626382</v>
       </c>
       <c r="U2">
-        <v>4.5186225019633799</v>
+        <v>4.5186224509586221</v>
       </c>
       <c r="V2">
-        <v>16.617753160445258</v>
+        <v>16.61775306701805</v>
       </c>
       <c r="W2">
-        <v>5.6322937958543466</v>
+        <v>5.6322937695964104</v>
       </c>
       <c r="X2">
-        <v>1.6881449587837785</v>
+        <v>1.6881448983452052</v>
       </c>
       <c r="Y2">
-        <v>0.56802455582729494</v>
+        <v>0.56802453112454554</v>
       </c>
       <c r="AA2">
-        <v>7.0425463244209565</v>
+        <v>7.0425461355056909</v>
       </c>
       <c r="AB2">
-        <v>1.535901440034231</v>
+        <v>1.5359014176902916</v>
       </c>
       <c r="AC2">
-        <v>10.118702206996147</v>
+        <v>10.118702174692498</v>
       </c>
       <c r="AD2">
-        <v>6.3066203458975814</v>
+        <v>6.3066202809436334</v>
       </c>
       <c r="AE2">
-        <v>10.178204303027382</v>
+        <v>10.1782043534811</v>
       </c>
       <c r="AF2">
-        <v>7.0328449136045377</v>
+        <v>7.0328448852218575</v>
       </c>
       <c r="AG2">
-        <v>13.095960868497196</v>
+        <v>13.095960583970518</v>
       </c>
       <c r="AH2">
-        <v>1.1979655447724391</v>
+        <v>1.1979655253421964</v>
       </c>
       <c r="AI2">
-        <v>16.852412043911166</v>
+        <v>16.85241235717843</v>
       </c>
       <c r="AJ2">
-        <v>15.679073170949598</v>
+        <v>15.679073192798915</v>
       </c>
       <c r="AK2">
-        <v>2.7786486602215059</v>
+        <v>2.778648646521106</v>
       </c>
       <c r="AL2">
-        <v>2.8372679204627622</v>
+        <v>2.8372678412142944</v>
       </c>
       <c r="AM2">
-        <v>0.1635973109910184</v>
+        <v>0.16359730644805667</v>
       </c>
       <c r="AN2">
-        <v>3.4270213775321792</v>
+        <v>3.4270214280954638</v>
       </c>
       <c r="AO2">
-        <v>5.4086055239614801</v>
+        <v>5.4086054930149512</v>
       </c>
       <c r="AP2">
-        <v>4.0418640529959138</v>
+        <v>4.0418640257564205</v>
       </c>
       <c r="AQ2">
-        <v>3.6509631169816301</v>
+        <v>3.6509631212893767</v>
       </c>
       <c r="AR2">
-        <v>3.8543755031690097</v>
+        <v>3.8543754275275477</v>
       </c>
       <c r="AS2">
-        <v>3.6396776584691954</v>
+        <v>3.6396776142078275</v>
       </c>
       <c r="AT2">
-        <v>0.89116958528896828</v>
+        <v>0.89116958247912892</v>
       </c>
       <c r="AU2">
-        <v>9.6786454422253705</v>
+        <v>9.6786453324326853</v>
       </c>
       <c r="AV2">
-        <v>2.2786523675602384</v>
+        <v>2.2786522859863902</v>
       </c>
       <c r="AW2">
-        <v>0.69488470603720143</v>
+        <v>0.69488469898446414</v>
       </c>
       <c r="AX2">
-        <v>0.23243214380023142</v>
+        <v>0.23243215064212747</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.850718512626736</v>
+        <v>13.850718492627525</v>
       </c>
       <c r="C3">
-        <v>3.9913047893553668</v>
+        <v>3.9913046878481664</v>
       </c>
       <c r="D3">
-        <v>3.9875774197927192</v>
+        <v>3.9875773928316605</v>
       </c>
       <c r="E3">
-        <v>14.470087827981654</v>
+        <v>14.470087797956197</v>
       </c>
       <c r="F3">
-        <v>4.9587794019820466</v>
+        <v>4.958779340931331</v>
       </c>
       <c r="G3">
-        <v>6.8505648099215106</v>
+        <v>6.8505648356052991</v>
       </c>
       <c r="H3">
-        <v>16.330261113380907</v>
+        <v>16.330260964380258</v>
       </c>
       <c r="I3">
-        <v>4.5153543244411214</v>
+        <v>4.5153543219811842</v>
       </c>
       <c r="J3">
-        <v>10.422764005639193</v>
+        <v>10.422763810861969</v>
       </c>
       <c r="K3">
-        <v>6.1216547499828353</v>
+        <v>6.1216547392539677</v>
       </c>
       <c r="L3">
-        <v>2.4389613041805545</v>
+        <v>2.4389613127125198</v>
       </c>
       <c r="M3">
-        <v>7.7010549534952446</v>
+        <v>7.701945882671188</v>
       </c>
       <c r="N3">
-        <v>0.28617110712199162</v>
+        <v>0.28617109816574898</v>
       </c>
       <c r="O3">
-        <v>6.5318022015908426</v>
+        <v>6.5318022016907191</v>
       </c>
       <c r="P3">
-        <v>4.0437310603950456</v>
+        <v>4.0437310042050632</v>
       </c>
       <c r="Q3">
-        <v>2.8509660754234254</v>
+        <v>2.8509660469154214</v>
       </c>
       <c r="R3">
-        <v>10.048852380126167</v>
+        <v>10.048852349745278</v>
       </c>
       <c r="S3">
-        <v>0.78887992346565361</v>
+        <v>0.78887992190905154</v>
       </c>
       <c r="T3">
-        <v>0.41105266638431798</v>
+        <v>0.41105263763164546</v>
       </c>
       <c r="U3">
-        <v>11.117370394192076</v>
+        <v>11.117370388574731</v>
       </c>
       <c r="V3">
-        <v>8.509475461704028</v>
+        <v>8.5094754369129291</v>
       </c>
       <c r="W3">
-        <v>1.377053462357015</v>
+        <v>1.3770534524266522</v>
       </c>
       <c r="X3">
-        <v>1.9270533759420829</v>
+        <v>1.9270533573699324</v>
       </c>
       <c r="Y3">
-        <v>1.9294510676168948</v>
+        <v>1.9294510502726205</v>
       </c>
       <c r="AA3">
-        <v>5.3912693355729981</v>
+        <v>5.3912693719495648</v>
       </c>
       <c r="AB3">
-        <v>13.033407641308884</v>
+        <v>13.033407554535582</v>
       </c>
       <c r="AC3">
-        <v>8.3109670868599146</v>
+        <v>8.3109671252668438</v>
       </c>
       <c r="AD3">
-        <v>11.832157777629027</v>
+        <v>11.83215767568821</v>
       </c>
       <c r="AE3">
-        <v>9.5556168363457381</v>
+        <v>9.5556166993199518</v>
       </c>
       <c r="AF3">
-        <v>2.6618383309881937</v>
+        <v>2.6618382980465434</v>
       </c>
       <c r="AG3">
-        <v>10.913082620960299</v>
+        <v>10.91308270904678</v>
       </c>
       <c r="AH3">
-        <v>3.750601940433993</v>
+        <v>3.7506019161827617</v>
       </c>
       <c r="AI3">
-        <v>12.695916271833024</v>
+        <v>12.695916349540898</v>
       </c>
       <c r="AJ3">
-        <v>8.7713086548327119</v>
+        <v>8.7713086448952069</v>
       </c>
       <c r="AK3">
-        <v>3.6320096835648399</v>
+        <v>3.632009680840858</v>
       </c>
       <c r="AL3">
-        <v>5.3294945765848087</v>
+        <v>5.3294945362866386</v>
       </c>
       <c r="AM3">
-        <v>0.98312792318993059</v>
+        <v>0.98312787159949644</v>
       </c>
       <c r="AN3">
-        <v>8.0593215237561644</v>
+        <v>8.0593215041399819</v>
       </c>
       <c r="AO3">
-        <v>4.3402488627955398</v>
+        <v>4.3402488330388245</v>
       </c>
       <c r="AP3">
-        <v>0.54396341822660832</v>
+        <v>0.54396342179079871</v>
       </c>
       <c r="AQ3">
-        <v>2.6578231289183885</v>
+        <v>2.6578231040856037</v>
       </c>
       <c r="AR3">
-        <v>1.5599985268773511</v>
+        <v>1.5599985190094958</v>
       </c>
       <c r="AS3">
-        <v>0.55214080807422183</v>
+        <v>0.55214080301726531</v>
       </c>
       <c r="AT3">
-        <v>3.7755393125119339</v>
+        <v>3.7755392691633793</v>
       </c>
       <c r="AU3">
-        <v>10.425318075950532</v>
+        <v>10.425317962058465</v>
       </c>
       <c r="AV3">
-        <v>2.8308492207662943</v>
+        <v>2.830849091571793</v>
       </c>
       <c r="AW3">
-        <v>3.1055354539972848</v>
+        <v>3.1055355099870474</v>
       </c>
       <c r="AX3">
-        <v>3.1898997199501702</v>
+        <v>3.1898996645339852</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.3780849759774303</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.0963195420125227</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>21.673110925943888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.165518518103237</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.3266425621691464</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.0200352588467254</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15.471072332386578</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.8801062760594478</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.29385651619592</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.543890159730674</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.9177912022098367</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.304442701213099</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.17498011386336998</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.8050792778891367</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.0688888737297999</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.9563632620654339</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.7366023908921173</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>6.7295485840233251</v>
@@ -585,55 +474,55 @@
         <v>0.56802453112454554</v>
       </c>
       <c r="AA2">
-        <v>7.0425461355056909</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.5359014176902916</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>10.118702174692498</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.3066202809436334</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.1782043534811</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.0328448852218575</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>13.095960583970518</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.1979655253421964</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16.85241235717843</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>15.679073192798915</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.778648646521106</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.8372678412142944</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.16359730644805667</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.4270214280954638</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.4086054930149512</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.0418640257564205</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.6509631212893767</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.8543754275275477</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.23243215064212747</v>
       </c>
+      <c r="AY2">
+        <v>1.5705597972484413</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.850718492627525</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.9913046878481664</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.9875773928316605</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.470087797956197</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.958779340931331</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.8505648356052991</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>16.330260964380258</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.5153543219811842</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.422763810861969</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.1216547392539677</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.4389613127125198</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.701945882671188</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.28617109816574898</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.5318022016907191</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.0437310042050632</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.8509660469154214</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.048852349745278</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.78887992190905154</v>
@@ -734,55 +623,55 @@
         <v>1.9294510502726205</v>
       </c>
       <c r="AA3">
-        <v>5.3912693719495648</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>13.033407554535582</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>8.3109671252668438</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>11.83215767568821</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.5556166993199518</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.6618382980465434</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.91308270904678</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.7506019161827617</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>12.695916349540898</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>8.7713086448952069</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.632009680840858</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.3294945362866386</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.98312787159949644</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.0593215041399819</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.3402488330388245</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.54396342179079871</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.6578231040856037</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.5599985190094958</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>3.1898996645339852</v>
+      </c>
+      <c r="AY3">
+        <v>9.0428646047087895</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3780849720391437</v>
+        <v>3.8883659508071853</v>
       </c>
       <c r="C2">
-        <v>3.0963195378118238</v>
+        <v>5.7366023908921173</v>
       </c>
       <c r="D2">
-        <v>15.395434815804782</v>
+        <v>3.4270214280954638</v>
       </c>
       <c r="E2">
-        <v>16.165518603657922</v>
+        <v>3.6509631212893767</v>
       </c>
       <c r="F2">
         <v>9.3266426388701635</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.850718512626736</v>
+        <v>6.5318022016907191</v>
       </c>
       <c r="C3">
-        <v>3.9913047893553668</v>
+        <v>10.048852349745278</v>
       </c>
       <c r="D3">
-        <v>3.9875774197926659</v>
+        <v>8.0593215041399819</v>
       </c>
       <c r="E3">
-        <v>14.470087827981654</v>
+        <v>1.8114155050670901</v>
       </c>
       <c r="F3">
         <v>4.9587794019820466</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.3780849720391437</v>
-      </c>
       <c r="C2">
-        <v>3.0963195378118238</v>
+        <v>3.8883659508071853</v>
       </c>
       <c r="D2">
-        <v>15.395434815804782</v>
+        <v>0.16359730644805667</v>
       </c>
       <c r="E2">
-        <v>16.165518603657922</v>
+        <v>3.4270214280954638</v>
       </c>
       <c r="F2">
         <v>9.3266426388701635</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.850718512626736</v>
+        <v>0.28617109816574898</v>
       </c>
       <c r="C3">
-        <v>3.9913047893553668</v>
+        <v>6.5318022016907191</v>
       </c>
       <c r="D3">
-        <v>3.9875774197926659</v>
+        <v>0.98312787159949644</v>
       </c>
       <c r="E3">
-        <v>14.470087827981654</v>
+        <v>8.0593215041399819</v>
       </c>
       <c r="F3">
         <v>4.9587794019820466</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2.3780849759774303</v>
+      </c>
       <c r="C2">
+        <v>3.0963195420125227</v>
+      </c>
+      <c r="D2">
+        <v>15.39543424404452</v>
+      </c>
+      <c r="E2">
+        <v>16.165518518103237</v>
+      </c>
+      <c r="F2">
+        <v>9.3266425621691464</v>
+      </c>
+      <c r="G2">
+        <v>8.0200352588467254</v>
+      </c>
+      <c r="H2">
+        <v>15.471072332386578</v>
+      </c>
+      <c r="I2">
+        <v>2.8801062760594478</v>
+      </c>
+      <c r="J2">
+        <v>16.29385651619592</v>
+      </c>
+      <c r="K2">
+        <v>14.543890159730674</v>
+      </c>
+      <c r="L2">
+        <v>2.9177912022098367</v>
+      </c>
+      <c r="M2">
+        <v>3.304442701213099</v>
+      </c>
+      <c r="O2">
         <v>3.8883659508071853</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>4.0688888737297999</v>
+      </c>
+      <c r="Q2">
+        <v>3.9563632620654339</v>
+      </c>
+      <c r="R2">
+        <v>5.7366023908921173</v>
+      </c>
+      <c r="S2">
+        <v>6.7295485840233251</v>
+      </c>
+      <c r="T2">
+        <v>0.81726010588796316</v>
+      </c>
+      <c r="U2">
+        <v>4.5186224509586221</v>
+      </c>
+      <c r="V2">
+        <v>16.61775306701805</v>
+      </c>
+      <c r="W2">
+        <v>5.6322937695964104</v>
+      </c>
+      <c r="X2">
+        <v>1.6881448983452052</v>
+      </c>
+      <c r="Y2">
+        <v>0.50863260676849575</v>
+      </c>
+      <c r="AA2">
+        <v>7.0425461355056909</v>
+      </c>
+      <c r="AB2">
+        <v>1.5359014176902916</v>
+      </c>
+      <c r="AC2">
+        <v>10.118702174692498</v>
+      </c>
+      <c r="AD2">
+        <v>6.3066202809436334</v>
+      </c>
+      <c r="AE2">
+        <v>10.1782043534811</v>
+      </c>
+      <c r="AF2">
+        <v>7.0328448852218575</v>
+      </c>
+      <c r="AG2">
+        <v>13.095960583970518</v>
+      </c>
+      <c r="AH2">
+        <v>3.2208374759286662</v>
+      </c>
+      <c r="AI2">
+        <v>16.85241235717843</v>
+      </c>
+      <c r="AJ2">
+        <v>15.679073192798915</v>
+      </c>
+      <c r="AK2">
+        <v>2.778648646521106</v>
+      </c>
+      <c r="AL2">
+        <v>2.8372678412142944</v>
+      </c>
+      <c r="AM2">
         <v>0.16359730644805667</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.4270214280954638</v>
       </c>
-      <c r="F2">
-        <v>9.3266426388701635</v>
-      </c>
-      <c r="G2">
-        <v>8.0200352103915264</v>
-      </c>
-      <c r="H2">
-        <v>15.471072458215735</v>
-      </c>
-      <c r="I2">
-        <v>2.8801063476374349</v>
-      </c>
-      <c r="J2">
-        <v>16.293856721861324</v>
-      </c>
-      <c r="K2">
-        <v>14.543890162171383</v>
-      </c>
-      <c r="L2">
-        <v>2.9177912744138728</v>
-      </c>
-      <c r="M2">
-        <v>3.3044427166708621</v>
-      </c>
-      <c r="O2">
-        <v>3.8883660159119477</v>
-      </c>
-      <c r="P2">
-        <v>4.0688889722708108</v>
-      </c>
-      <c r="Q2">
-        <v>3.956363254270387</v>
-      </c>
-      <c r="R2">
-        <v>5.7366023813246798</v>
-      </c>
-      <c r="S2">
-        <v>6.729548691855288</v>
-      </c>
-      <c r="T2">
-        <v>0.81726011202841442</v>
-      </c>
-      <c r="U2">
-        <v>4.5186225019633799</v>
-      </c>
-      <c r="V2">
-        <v>16.617753160445258</v>
-      </c>
-      <c r="W2">
-        <v>5.6322937958543466</v>
-      </c>
-      <c r="X2">
-        <v>1.6881449587837785</v>
-      </c>
-      <c r="Y2">
-        <v>0.50863262582788304</v>
-      </c>
-      <c r="AA2">
-        <v>7.0425463244209565</v>
-      </c>
-      <c r="AB2">
-        <v>1.535901440034231</v>
-      </c>
-      <c r="AC2">
-        <v>10.118702206996147</v>
-      </c>
-      <c r="AD2">
-        <v>6.3066203458975814</v>
-      </c>
-      <c r="AE2">
-        <v>10.178204303027382</v>
-      </c>
-      <c r="AF2">
-        <v>7.0328449136045377</v>
-      </c>
-      <c r="AG2">
-        <v>13.095960868497196</v>
-      </c>
-      <c r="AH2">
-        <v>3.2208375165744259</v>
-      </c>
-      <c r="AI2">
-        <v>16.852412043911166</v>
-      </c>
-      <c r="AJ2">
-        <v>15.679073170949598</v>
-      </c>
-      <c r="AK2">
-        <v>2.7786486602215059</v>
-      </c>
-      <c r="AL2">
-        <v>2.8372679204627622</v>
-      </c>
-      <c r="AM2">
-        <v>0.1635973109910184</v>
-      </c>
-      <c r="AN2">
-        <v>3.4270213775321792</v>
-      </c>
       <c r="AO2">
-        <v>5.4086055239614801</v>
+        <v>5.4086054930149512</v>
       </c>
       <c r="AP2">
-        <v>4.0810594300084926</v>
+        <v>4.0810594097407931</v>
       </c>
       <c r="AQ2">
-        <v>3.6509631169816301</v>
+        <v>3.6509631212893767</v>
       </c>
       <c r="AR2">
-        <v>3.8543755031690097</v>
+        <v>3.8543754275275477</v>
       </c>
       <c r="AS2">
-        <v>3.6396776584691954</v>
+        <v>3.6396776142078275</v>
       </c>
       <c r="AT2">
-        <v>0.89116958528896828</v>
+        <v>0.89116958247912892</v>
       </c>
       <c r="AU2">
-        <v>9.6786454422253705</v>
+        <v>9.6786453324326853</v>
       </c>
       <c r="AV2">
-        <v>2.2786523675602384</v>
+        <v>2.2786522859863902</v>
       </c>
       <c r="AW2">
-        <v>0.69488470603720143</v>
+        <v>0.69488469898446414</v>
       </c>
       <c r="AX2">
-        <v>0.23243214380023142</v>
+        <v>0.23243215064212747</v>
       </c>
       <c r="AY2">
-        <v>1.5705598054577643</v>
+        <v>1.5705597972484413</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.850718492627525</v>
+      </c>
+      <c r="C3">
+        <v>3.9913046878481664</v>
+      </c>
+      <c r="D3">
+        <v>3.9875773928316867</v>
+      </c>
+      <c r="E3">
+        <v>14.470087797956197</v>
+      </c>
+      <c r="F3">
+        <v>4.958779340931331</v>
+      </c>
+      <c r="G3">
+        <v>6.8505648356052991</v>
+      </c>
+      <c r="H3">
+        <v>16.330260964380258</v>
+      </c>
+      <c r="I3">
+        <v>6.6664858710494297</v>
+      </c>
+      <c r="J3">
+        <v>10.422763810861969</v>
+      </c>
+      <c r="K3">
+        <v>6.1216547392539677</v>
+      </c>
+      <c r="L3">
+        <v>2.4389613127125198</v>
+      </c>
+      <c r="M3">
+        <v>7.701945882671188</v>
+      </c>
+      <c r="N3">
         <v>0.28617109816574898</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.5318022016907191</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.0437310042050632</v>
+      </c>
+      <c r="Q3">
+        <v>2.8509660469154214</v>
+      </c>
+      <c r="R3">
+        <v>10.048852349745278</v>
+      </c>
+      <c r="S3">
+        <v>0.86761922166667271</v>
+      </c>
+      <c r="T3">
+        <v>0.4527281159744444</v>
+      </c>
+      <c r="U3">
+        <v>11.117370388574731</v>
+      </c>
+      <c r="V3">
+        <v>8.5094754369129291</v>
+      </c>
+      <c r="W3">
+        <v>1.311702284576918</v>
+      </c>
+      <c r="X3">
+        <v>1.9270533573699324</v>
+      </c>
+      <c r="Y3">
+        <v>1.9294510502726205</v>
+      </c>
+      <c r="AA3">
+        <v>5.3912693719495648</v>
+      </c>
+      <c r="AB3">
+        <v>13.033407554535582</v>
+      </c>
+      <c r="AC3">
+        <v>9.1141804430385545</v>
+      </c>
+      <c r="AD3">
+        <v>11.83215767568821</v>
+      </c>
+      <c r="AE3">
+        <v>9.5556166993199518</v>
+      </c>
+      <c r="AF3">
+        <v>2.6618382980465434</v>
+      </c>
+      <c r="AG3">
+        <v>10.91308270904678</v>
+      </c>
+      <c r="AH3">
+        <v>1.8223964269760713</v>
+      </c>
+      <c r="AI3">
+        <v>12.695916349540898</v>
+      </c>
+      <c r="AJ3">
+        <v>8.7713086448952069</v>
+      </c>
+      <c r="AK3">
+        <v>3.632009680840858</v>
+      </c>
+      <c r="AL3">
+        <v>5.3294945362866386</v>
+      </c>
+      <c r="AM3">
         <v>0.98312787159949644</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>8.0593215041399819</v>
       </c>
-      <c r="F3">
-        <v>4.9587794019820466</v>
-      </c>
-      <c r="G3">
-        <v>6.8505648099215106</v>
-      </c>
-      <c r="H3">
-        <v>16.330261113380907</v>
-      </c>
-      <c r="I3">
-        <v>6.6664858729566889</v>
-      </c>
-      <c r="J3">
-        <v>10.422764005639193</v>
-      </c>
-      <c r="K3">
-        <v>6.1216547499828353</v>
-      </c>
-      <c r="L3">
-        <v>2.4389613041805545</v>
-      </c>
-      <c r="M3">
-        <v>7.7010549534952446</v>
-      </c>
-      <c r="N3">
-        <v>0.28617110712199162</v>
-      </c>
-      <c r="O3">
-        <v>6.5318022015908426</v>
-      </c>
-      <c r="P3">
-        <v>4.0437310603950456</v>
-      </c>
-      <c r="Q3">
-        <v>2.8509660754234254</v>
-      </c>
-      <c r="R3">
-        <v>10.048852380126167</v>
-      </c>
-      <c r="S3">
-        <v>0.86761922562919946</v>
-      </c>
-      <c r="T3">
-        <v>0.45272815796017474</v>
-      </c>
-      <c r="U3">
-        <v>11.117370394192076</v>
-      </c>
-      <c r="V3">
-        <v>8.509475461704028</v>
-      </c>
-      <c r="W3">
-        <v>1.3117022778811589</v>
-      </c>
-      <c r="X3">
-        <v>1.9270533759420829</v>
-      </c>
-      <c r="Y3">
-        <v>1.9294510676168948</v>
-      </c>
-      <c r="AA3">
-        <v>5.3912693355729981</v>
-      </c>
-      <c r="AB3">
-        <v>13.033407641308884</v>
-      </c>
-      <c r="AC3">
-        <v>9.114180373391692</v>
-      </c>
-      <c r="AD3">
-        <v>11.832157777629027</v>
-      </c>
-      <c r="AE3">
-        <v>9.5556168363457381</v>
-      </c>
-      <c r="AF3">
-        <v>2.6618383309881937</v>
-      </c>
-      <c r="AG3">
-        <v>10.913082620960299</v>
-      </c>
-      <c r="AH3">
-        <v>1.8223964058689657</v>
-      </c>
-      <c r="AI3">
-        <v>12.695916271833024</v>
-      </c>
-      <c r="AJ3">
-        <v>8.7713086548327119</v>
-      </c>
-      <c r="AK3">
-        <v>3.6320096835648399</v>
-      </c>
-      <c r="AL3">
-        <v>5.3294945765848087</v>
-      </c>
-      <c r="AM3">
-        <v>0.98312792318993059</v>
-      </c>
-      <c r="AN3">
-        <v>8.0593215237561644</v>
-      </c>
       <c r="AO3">
-        <v>4.3402488627955398</v>
+        <v>4.3402488330388245</v>
       </c>
       <c r="AP3">
-        <v>0.38763919922367002</v>
+        <v>0.38763920302138966</v>
       </c>
       <c r="AQ3">
-        <v>1.8114155007396253</v>
+        <v>1.8114155050670901</v>
       </c>
       <c r="AR3">
-        <v>1.5599985268773511</v>
+        <v>1.5599985190094958</v>
       </c>
       <c r="AS3">
-        <v>0.55214080807422183</v>
+        <v>0.55214080301726531</v>
       </c>
       <c r="AT3">
-        <v>3.7755393125119339</v>
+        <v>3.7755392691633793</v>
       </c>
       <c r="AU3">
-        <v>10.425318075950532</v>
+        <v>10.425317962058465</v>
       </c>
       <c r="AV3">
-        <v>2.8308492207662943</v>
+        <v>2.830849091571793</v>
       </c>
       <c r="AW3">
-        <v>3.1055354539972848</v>
+        <v>3.1055355099870474</v>
       </c>
       <c r="AX3">
-        <v>3.1898997199501702</v>
+        <v>3.1898996645339852</v>
       </c>
       <c r="AY3">
-        <v>9.0428646858258652</v>
+        <v>9.0428646047087895</v>
       </c>
     </row>
   </sheetData>
